--- a/otl-covenants-tables.xlsx
+++ b/otl-covenants-tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="325">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>No persons of any race other than the white race shall use or occupy any building on any lot except that this covenant shall not prevent the occupancy by domestic servants of a different race domiciled with an owner or tenant.</t>
+  </si>
+  <si>
+    <t>columbia_woodland_terraces</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Woodland Terraces</t>
+  </si>
+  <si>
+    <t>Lower Woodland Terrace, Upper Woodland Terrace</t>
+  </si>
+  <si>
+    <t>counted homes on map</t>
+  </si>
+  <si>
+    <t>vol. 80, p. 7, with town map</t>
+  </si>
+  <si>
+    <t>Esther C. and William A. Knofla of E.W.A. Inc. and Woodland Terraces Association</t>
+  </si>
+  <si>
+    <t>This deed is upon condition that the premises herein conveyed shall not hereafter be conveyed to, leased to, used or occupied by any member of the Hebrew Race.</t>
   </si>
   <si>
     <t>easthaddam_lake_hayward_club</t>
@@ -540,9 +564,6 @@
   </si>
   <si>
     <t>Asylum Ave, Craigmoor Rd</t>
-  </si>
-  <si>
-    <t>counted homes on map</t>
   </si>
   <si>
     <t>vol. 154, p. 116; vol. 150, p. 456</t>
@@ -1271,12 +1292,13 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Z28" sheet="data"/>
+    <worksheetSource ref="A1:Z29" sheet="data"/>
   </cacheSource>
   <cacheFields>
     <cacheField name="id" numFmtId="0">
       <sharedItems>
         <s v="cheshire_honey_pot_glen"/>
+        <s v="columbia_woodland_terraces"/>
         <s v="easthaddam_lake_hayward_club"/>
         <s v="easthaddam_moodus_estates"/>
         <s v="easthaddam_moodus_lake_shores"/>
@@ -1308,6 +1330,7 @@
     <cacheField name="town" numFmtId="0">
       <sharedItems>
         <s v="Cheshire"/>
+        <s v="Columbia"/>
         <s v="East Haddam"/>
         <s v="Hamden"/>
         <s v="Manchester"/>
@@ -1319,6 +1342,7 @@
     <cacheField name="name" numFmtId="0">
       <sharedItems>
         <s v="Honey Pot Glen"/>
+        <s v="Woodland Terraces"/>
         <s v="Lake Hayward Club"/>
         <s v="Moodus Estates"/>
         <s v="Moodus Lake Shores"/>
@@ -1355,6 +1379,7 @@
     <cacheField name="streets-partial" numFmtId="0">
       <sharedItems>
         <s v="Country Club Rd, Glen Ct, Glenbrook Dr, Wolf Hill Rd"/>
+        <s v="Lower Woodland Terrace, Upper Woodland Terrace"/>
         <s v="Briarcliff Rd, Cragmere Rd, East Lane, Forest Way, Glimmer Glen, Hay Field Rd, Hillside Rd, Lake Hayward Town Rd, Lake Shore Dr, Laurel Lane, Longwood Dr, Lookout Dr, Ridgewood Dr, Ridgewood Dr Ext, Sunset Rd, Wildwood Rd"/>
         <s v="Laurel Rd, White Sands Road, Pine Tree Rd, Birch Road, Woodland Rd, Lakeview Rd. Shore Dr, Sands Rd, Crestview Road, Hill Top Road"/>
         <s v="Beach Rd, Berry Rd, Birch Rd, Britain Rd, Camp Rd, Emily Rd, Geronimo Rd, Grama Rd, Hilltop Rd, Mabel Rd, Maple Rd, Oak Rd, Paula Rd, Pine Rd, Rock Rd, Shady Rd, Short Rd, Steven Rd, Swamp Rd, Tom Rd, Ward Rd"/>
@@ -1385,7 +1410,8 @@
     </cacheField>
     <cacheField name="est-homes" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="43.0"/>
+        <n v="44.0"/>
+        <n v="16.0"/>
         <n v="418.0"/>
         <n v="79.0"/>
         <n v="75.0"/>
@@ -1396,7 +1422,6 @@
         <n v="49.0"/>
         <n v="81.0"/>
         <n v="53.0"/>
-        <n v="44.0"/>
         <n v="89.0"/>
         <n v="25.0"/>
         <n v="47.0"/>
@@ -1416,6 +1441,7 @@
     <cacheField name="est-notes" numFmtId="0">
       <sharedItems>
         <s v="counted addresses linked to restricted lots in spreadsheet"/>
+        <s v="counted homes on map"/>
         <s v="although 750 original lots, 418 properties with addresses listed on roads by Town Assessor"/>
         <s v="although 624 original lots, 79 properties with addresses listed on roads by Town Assessor"/>
         <s v="although 407 original lots, 75 properties with addresses listed on roads by Town Assessor"/>
@@ -1425,13 +1451,13 @@
         <s v="counted plots on deed map: 47 (except 8-9, 38)"/>
         <s v="counted on map (exclude 1-7 because not in agreement)"/>
         <s v="listed in deed"/>
-        <s v="counted homes on map"/>
         <s v="restriction listed in 35 of 41 plots (all except 1, 30, 32, 34, 39, 41)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="source" numFmtId="0">
       <sharedItems>
         <s v="vol. 62, pp. 299-232, with maps"/>
+        <s v="vol. 80, p. 7, with town map"/>
         <s v="vol. 56, p. 111, with town maps"/>
         <s v="vol. 68, p. 30; vol 63, p. 103, with town maps"/>
         <s v="vol. 61, p. 392, with town maps"/>
@@ -1463,6 +1489,7 @@
     <cacheField name="restrictor" numFmtId="0">
       <sharedItems>
         <s v="August Anderson"/>
+        <s v="Esther C. and William A. Knofla of E.W.A. Inc. and Woodland Terraces Association"/>
         <s v="James Jay Smith, President of The Shore &amp; Lake Corp."/>
         <s v="Edward L. Parker and Curtis L. Jones, The Lake Realty Company"/>
         <s v="Edward L. Parker and Curtis L. Jones, The Lakeshore Company"/>
@@ -1493,6 +1520,7 @@
     <cacheField name="date">
       <sharedItems containsDate="1" containsMixedTypes="1">
         <d v="1940-11-14T00:00:00Z"/>
+        <d v="1948-04-15T00:00:00Z"/>
         <d v="1936-07-10T00:00:00Z"/>
         <s v="20 October 1947; 21 December 1950"/>
         <d v="1946-11-21T00:00:00Z"/>
@@ -1524,6 +1552,7 @@
     <cacheField name="text" numFmtId="0">
       <sharedItems>
         <s v="No persons of any race other than the white race shall use or occupy any building on any lot except that this covenant shall not prevent the occupancy by domestic servants of a different race domiciled with an owner or tenant."/>
+        <s v="This deed is upon condition that the premises herein conveyed shall not hereafter be conveyed to, leased to, used or occupied by any member of the Hebrew Race."/>
         <s v="As the Lake Hayward Club property is strictly a club proposition, it is hereby covenants and agreed that the property herein conveyed shall not be sold, released, or rented in any form or manner directly or indirectly to any person or persons: (1) who are"/>
         <s v="No portion of said premises shall be conveyed or leased to any other than the Caucasian Race."/>
         <s v="The use and occupancy of said premises shall be limited to the use of members of the Caucasian Race, except for domestic servants."/>
@@ -1624,7 +1653,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pivot" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:C9" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="A1:C10" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="id" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -1655,6 +1684,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1667,6 +1697,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1699,6 +1730,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1737,6 +1769,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1817,6 +1850,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1848,6 +1882,7 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1880,6 +1915,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1903,6 +1939,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2322,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2372,7 +2409,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="4">
-        <v>418.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>25</v>
@@ -2384,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="5">
-        <v>13341.0</v>
+        <v>17638.0</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>28</v>
@@ -2410,31 +2447,31 @@
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4">
-        <v>79.0</v>
+        <v>418.0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="J4" s="5">
+        <v>13341.0</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>36</v>
@@ -2460,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>38</v>
@@ -2472,7 +2509,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="4">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
@@ -2483,11 +2520,11 @@
       <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5">
-        <v>17127.0</v>
+      <c r="J5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2507,37 +2544,37 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4">
-        <v>32.0</v>
+        <v>75.0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5">
-        <v>17773.0</v>
+        <v>17127.0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2556,38 +2593,38 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="2">
-        <v>14612.0</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="J7" s="5">
+        <v>17773.0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2607,37 +2644,37 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2">
-        <v>15512.0</v>
+        <v>14612.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2657,37 +2694,37 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2">
-        <v>15465.0</v>
+        <v>15512.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2707,37 +2744,37 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
-        <v>49.0</v>
+        <v>20.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2">
-        <v>15235.0</v>
+        <v>15465.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2757,37 +2794,37 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="4">
-        <v>81.0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F11" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2">
-        <v>14885.0</v>
+        <v>15235.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2807,37 +2844,37 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="F12" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2">
-        <v>16782.0</v>
+        <v>14885.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2857,37 +2894,37 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1">
-        <v>44.0</v>
+        <v>53.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2">
-        <v>14916.0</v>
+        <v>16782.0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2907,37 +2944,37 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1">
-        <v>89.0</v>
+        <v>44.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2">
-        <v>14713.0</v>
+        <v>14916.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2957,37 +2994,37 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1">
-        <v>25.0</v>
+        <v>89.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" s="2">
-        <v>15326.0</v>
+        <v>14713.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3007,37 +3044,37 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1">
-        <v>47.0</v>
+        <v>25.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J16" s="2">
-        <v>15250.0</v>
+        <v>15326.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3057,37 +3094,37 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1">
-        <v>74.0</v>
+        <v>47.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="J17" s="2">
-        <v>14731.0</v>
+        <v>15250.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -3107,37 +3144,37 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="3">
-        <v>104.0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>121</v>
+      </c>
+      <c r="F18" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="J18" s="2">
-        <v>14734.0</v>
+        <v>14731.0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3157,37 +3194,37 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="3">
-        <v>118.0</v>
+        <v>104.0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J19" s="2">
-        <v>14933.0</v>
+        <v>14734.0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -3207,37 +3244,37 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3">
-        <v>18.0</v>
+        <v>118.0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J20" s="2">
-        <v>15148.0</v>
+        <v>14933.0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -3257,37 +3294,37 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F21" s="3">
-        <v>47.0</v>
+        <v>18.0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J21" s="2">
-        <v>14522.0</v>
+        <v>15148.0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -3307,37 +3344,37 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="3">
-        <v>26.0</v>
+        <v>47.0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J22" s="2">
-        <v>14599.0</v>
+        <v>14522.0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -3357,25 +3394,25 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="G23" s="6" t="s">
         <v>149</v>
+      </c>
+      <c r="F23" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>150</v>
@@ -3384,7 +3421,7 @@
         <v>151</v>
       </c>
       <c r="J23" s="2">
-        <v>14914.0</v>
+        <v>14599.0</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>152</v>
@@ -3410,34 +3447,34 @@
         <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="6">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2">
-        <v>15186.0</v>
+        <v>14914.0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -3457,37 +3494,37 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="6">
-        <v>84.0</v>
+        <v>19.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J25" s="2">
-        <v>14772.0</v>
+        <v>15186.0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3507,37 +3544,37 @@
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" s="6">
-        <v>41.0</v>
+        <v>84.0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J26" s="2">
-        <v>15122.0</v>
+        <v>14772.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3557,37 +3594,37 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F27" s="6">
-        <v>34.0</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>173</v>
+        <v>41.0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J27" s="2">
-        <v>14779.0</v>
+        <v>15122.0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -3606,38 +3643,38 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="4">
-        <v>35.0</v>
+      <c r="F28" s="6">
+        <v>34.0</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="2">
+        <v>14779.0</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="J28" s="5">
-        <v>14626.0</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3654,6 +3691,56 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
+    </row>
+    <row r="29" ht="15.0" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="5">
+        <v>14626.0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -3682,6 +3769,7 @@
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
+    <row r="10"/>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3699,7 +3787,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3757,42 +3845,42 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4" s="12">
         <f>'hamden-calc'!B16</f>
         <v>0.2268175882</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B5" s="12">
         <f>'westhartford-calc'!B16</f>
         <v>0.06291390728</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6" s="14">
         <v>0.035</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -3825,7 +3913,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3855,7 +3943,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3885,7 +3973,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3915,7 +4003,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3945,7 +4033,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3975,7 +4063,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4005,7 +4093,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4035,7 +4123,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4065,7 +4153,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4095,7 +4183,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4125,7 +4213,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4155,7 +4243,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4185,42 +4273,42 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="19" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
@@ -4257,67 +4345,67 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="21"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="21"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="21"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="21"/>
     </row>
@@ -4337,7 +4425,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4353,7 +4441,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4369,7 +4457,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4385,7 +4473,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4401,7 +4489,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4417,7 +4505,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4433,7 +4521,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4449,7 +4537,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4465,7 +4553,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4481,7 +4569,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="23" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4497,7 +4585,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4513,7 +4601,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4529,7 +4617,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4545,7 +4633,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4561,7 +4649,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4577,7 +4665,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4593,7 +4681,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4609,7 +4697,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4675,13 +4763,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>15</v>
@@ -4689,19 +4777,19 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J33" s="5">
         <v>18396.0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q33" s="21"/>
     </row>
@@ -4710,16 +4798,16 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B36" s="13">
         <v>10.0</v>
@@ -4728,7 +4816,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B37" s="13">
         <v>12.0</v>
@@ -4737,7 +4825,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B38" s="13">
         <v>4.0</v>
@@ -4746,7 +4834,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B39" s="13">
         <v>22.0</v>
@@ -4755,7 +4843,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B40" s="13">
         <v>28.0</v>
@@ -4764,7 +4852,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B41" s="13">
         <v>13.0</v>
@@ -4773,7 +4861,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B42" s="13">
         <v>4.0</v>
@@ -4782,7 +4870,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B43" s="13">
         <v>11.0</v>
@@ -4791,7 +4879,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B44" s="13">
         <v>105.0</v>
@@ -4800,7 +4888,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B45" s="13">
         <v>5.0</v>
@@ -4809,7 +4897,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B46" s="13">
         <v>54.0</v>
@@ -4818,7 +4906,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B47" s="13">
         <v>32.0</v>
@@ -4827,7 +4915,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B48" s="13">
         <v>40.0</v>
@@ -4836,7 +4924,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B49" s="13">
         <v>10.0</v>
@@ -4845,7 +4933,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B50" s="13">
         <v>8.0</v>
@@ -4854,7 +4942,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B51" s="13">
         <v>60.0</v>
@@ -4863,7 +4951,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B52" s="7">
         <f>sum(B36:B51)</f>
@@ -4879,16 +4967,16 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B56" s="13">
         <v>9.0</v>
@@ -4897,7 +4985,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B57" s="13">
         <v>4.0</v>
@@ -4906,7 +4994,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B58" s="13">
         <v>8.0</v>
@@ -4915,7 +5003,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B59" s="13">
         <v>2.0</v>
@@ -4924,7 +5012,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B60" s="13">
         <v>6.0</v>
@@ -4933,13 +5021,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="24" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B62" s="13">
         <v>5.0</v>
@@ -4948,7 +5036,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B63" s="13">
         <v>1.0</v>
@@ -4957,7 +5045,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B64" s="13">
         <v>16.0</v>
@@ -4966,7 +5054,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="24" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B65" s="13">
         <v>11.0</v>
@@ -4975,7 +5063,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B66" s="13">
         <v>11.0</v>
@@ -4984,7 +5072,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B67" s="13">
         <v>6.0</v>
@@ -4993,19 +5081,19 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q68" s="21"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q69" s="21"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B70" s="7">
         <f>sum(B56:B69)</f>
@@ -5018,16 +5106,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q72" s="21"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B73" s="13">
         <v>4.0</v>
@@ -5036,13 +5124,13 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q74" s="21"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B75" s="13">
         <v>4.0</v>
@@ -5051,7 +5139,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B76" s="13">
         <v>22.0</v>
@@ -5060,7 +5148,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="24" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B77" s="13">
         <v>2.0</v>
@@ -5069,7 +5157,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B78" s="7">
         <f>sum(B73:B77)</f>
@@ -5082,16 +5170,16 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q80" s="21"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="24" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B81" s="13">
         <v>6.0</v>
@@ -5100,7 +5188,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="24" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B82" s="13">
         <v>6.0</v>
@@ -5109,7 +5197,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="24" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B83" s="13">
         <v>6.0</v>
@@ -5118,25 +5206,25 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="24" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q84" s="21"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="24" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q85" s="21"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="24" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q86" s="21"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="24" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B87" s="13">
         <v>3.0</v>
@@ -5145,7 +5233,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B88" s="13">
         <v>1.0</v>
@@ -5154,7 +5242,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="24" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B89" s="13">
         <v>20.0</v>
@@ -5163,7 +5251,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="24" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B90" s="13">
         <v>1.0</v>
@@ -5172,7 +5260,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="24" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B91" s="13">
         <v>2.0</v>
@@ -5181,7 +5269,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="24" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B92" s="13">
         <v>11.0</v>
@@ -5190,7 +5278,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="24" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B93" s="13">
         <v>3.0</v>
@@ -5199,7 +5287,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="24" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B94" s="13">
         <v>5.0</v>
@@ -5208,7 +5296,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="24" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B95" s="13">
         <v>3.0</v>
@@ -5217,13 +5305,13 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="24" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q96" s="21"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B97" s="13">
         <v>4.0</v>
@@ -5232,7 +5320,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="24" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B98" s="13">
         <v>1.0</v>
@@ -5241,13 +5329,13 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="24" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q99" s="21"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="24" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B100" s="13">
         <v>2.0</v>
@@ -5256,7 +5344,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="24" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B101" s="13">
         <v>1.0</v>
@@ -5265,7 +5353,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B102" s="7">
         <f>sum(B81:B101)</f>
@@ -6272,10 +6360,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D1" s="25"/>
     </row>
@@ -6370,7 +6458,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B12" s="7">
         <f>sum(B2:B11)</f>
@@ -6380,7 +6468,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C13" s="27"/>
     </row>
@@ -6391,7 +6479,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B15" s="13">
         <v>521.0</v>
@@ -6399,7 +6487,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B16" s="29">
         <f>B15/B12</f>
@@ -7417,10 +7505,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -7515,7 +7603,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B12" s="31">
         <f>sum(B2:B11)</f>
@@ -7525,21 +7613,21 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B15" s="30">
         <v>190.0</v>
@@ -7548,7 +7636,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B16" s="32">
         <f>B15/B12</f>
